--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,10 +257,7 @@
     <t xml:space="preserve"> Identifiant national de la personne physique:** Pour les professionnels de santé: Numéro RPPS ou ADELI.** Pour les étudiants: Numéro RPPS depuis 2017.** Pour les acteurs non professionnels de santé employés d’une structure : l’identifiant est composé de l’identifiant principal de la structure et de l’identifiant interne attribué par la structure.</t>
   </si>
   <si>
-    <t>Professionnel.typeIdNat-PP</t>
-  </si>
-  <si>
-    <t>Professionnel.typeIdNat_PP</t>
+    <t>Professionnel.typeIdNatPP</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -276,10 +273,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/TypeIdentifiantPersonne-vs</t>
   </si>
   <si>
-    <t>Professionnel.idNat-PS</t>
-  </si>
-  <si>
-    <t>Professionnel.idNat_PS</t>
+    <t>Professionnel.idNatPS</t>
   </si>
   <si>
     <t xml:space="preserve"> Identification nationale principale du professionnel initiée pour les besoins du SI-CPS.Cette identification est obtenue par la concaténation du type d'identifiant national de personne (provenant de la nomenclature CodeSystem-TRE-G08-TypeIdentifiantPersonne) et de l'identifiant de la personne physique provenant, selon le type d’identifiant, soit d’un référentiel national, soit d’un référentiel local propre à la structure d’exercice de la personne physique:** 0 + N° ADELI du professionnel    Ex : 0123456789 : identification nationale d’un professionnel identifié par un n° ADELI = 123456789;** 1 + Identifiant cabinet ADELI/identifiant interne du professionnel employé au sein d’un cabinet    Ex : 112345678901/00001 : identification nationale d’un employé dans un cabinet libéral:          - le titulaire du cabinet est un professionnel identifié par un n° ADELI = 123456789          - le cabinet est identifié par un ADELI-rang = 12345678901 (01 = n° de rang du cabinet du même professionnel sur 2 caractères)          - l’identifiant interne de l’employé dans la structure = 00001; ** 3 + N° FINESS/identifiant interne du professionnel employé au sein d’une structure FINESS;** 4 + N° Siren/identifiant interne du professionnel employé au sein d’une structure Siren (NB: pas d'utilisation identifiée de cette construction);** 5 + N° Siret/identifiant interne du professionnel employé au sein d’une structure Siret;** 6 + Identifiant cabinet RPPS/ identifiant interne du professionnel employé au sein d’un cabinet          - le cabinet est identifié par un RPPS-rang à 14 caractères (numéro RPPS du professionnel + rang sur 2 caractères + clé de Luhn);** 8 + N° RPPS du professionnel ou de l’étudiant;    Ex : 810005678901 : identification nationale d’un professionnel ou d’un étudiant identifié par un n° RPPS = 10005678901Le numéro RPPS est un identifiant pérenne, constitué de 11 caractères non significatifs (numéro d’ordre sur 10 caractères + clé de Luhn sur 1 caractère);** 10 + Adresse MSS (adresse MSS d'un professionnel sans identifiant national (assistante sociale, médecin non inscrit, etc.); cet identifiant est utilisé uniquement pour la messagerie sécurisée de santé.Synonyme: PS_IdNat (CI-SIS, appel contextuel pour les applications Web).</t>
@@ -512,7 +506,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -994,7 +990,7 @@
         <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1017,13 +1013,13 @@
         <v>70</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1050,11 +1046,11 @@
         <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>70</v>
@@ -1072,7 +1068,7 @@
         <v>70</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>71</v>
@@ -1089,10 +1085,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1118,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1172,7 +1168,7 @@
         <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>71</v>
@@ -1189,10 +1185,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1215,13 +1211,13 @@
         <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1272,7 +1268,7 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>71</v>
@@ -1289,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1315,13 +1311,13 @@
         <v>70</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1372,7 +1368,7 @@
         <v>70</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>71</v>
@@ -1389,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1415,13 +1411,13 @@
         <v>70</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1472,7 +1468,7 @@
         <v>70</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>71</v>
@@ -1489,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1515,13 +1511,13 @@
         <v>70</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1572,7 +1568,7 @@
         <v>70</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>71</v>
@@ -1589,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1615,13 +1611,13 @@
         <v>70</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1672,7 +1668,7 @@
         <v>70</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>71</v>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -302,7 +302,7 @@
     <t>Professionnel.adresseCorrespondance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse
+    <t xml:space="preserve">Address {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse}
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
     <t>Professionnel.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
+    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/TypeIdentifiantPersonne-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G08-TypeIdentifiantPersonne?vs</t>
   </si>
   <si>
     <t>Professionnel.idNatPS</t>
@@ -302,7 +302,7 @@
     <t>Professionnel.adresseCorrespondance</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
     <t>Professionnel.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -663,7 +663,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.52734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS ou ADELI), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
+    <t>Données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS ou ADELI), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant national de la personne physique:** Pour les professionnels de santé: Numéro RPPS ou ADELI.** Pour les étudiants: Numéro RPPS depuis 2017.** Pour les acteurs non professionnels de santé employés d’une structure : l’identifiant est composé de l’identifiant principal de la structure et de l’identifiant interne attribué par la structure.</t>
+    <t>Identifiant national de la personne physique:** Pour les professionnels de santé: Numéro RPPS ou ADELI.** Pour les étudiants: Numéro RPPS depuis 2017.** Pour les acteurs non professionnels de santé employés d’une structure : l’identifiant est composé de l’identifiant principal de la structure et de l’identifiant interne attribué par la structure.</t>
   </si>
   <si>
     <t>Professionnel.typeIdNatPP</t>
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type d’identifiant national de la personne physique.</t>
+    <t>Type d’identifiant national de la personne physique.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -276,7 +276,7 @@
     <t>Professionnel.idNatPS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identification nationale principale du professionnel initiée pour les besoins du SI-CPS.Cette identification est obtenue par la concaténation du type d'identifiant national de personne (provenant de la nomenclature CodeSystem-TRE-G08-TypeIdentifiantPersonne) et de l'identifiant de la personne physique provenant, selon le type d’identifiant, soit d’un référentiel national, soit d’un référentiel local propre à la structure d’exercice de la personne physique:** 0 + N° ADELI du professionnel    Ex : 0123456789 : identification nationale d’un professionnel identifié par un n° ADELI = 123456789;** 1 + Identifiant cabinet ADELI/identifiant interne du professionnel employé au sein d’un cabinet    Ex : 112345678901/00001 : identification nationale d’un employé dans un cabinet libéral:          - le titulaire du cabinet est un professionnel identifié par un n° ADELI = 123456789          - le cabinet est identifié par un ADELI-rang = 12345678901 (01 = n° de rang du cabinet du même professionnel sur 2 caractères)          - l’identifiant interne de l’employé dans la structure = 00001; ** 3 + N° FINESS/identifiant interne du professionnel employé au sein d’une structure FINESS;** 4 + N° Siren/identifiant interne du professionnel employé au sein d’une structure Siren (NB: pas d'utilisation identifiée de cette construction);** 5 + N° Siret/identifiant interne du professionnel employé au sein d’une structure Siret;** 6 + Identifiant cabinet RPPS/ identifiant interne du professionnel employé au sein d’un cabinet          - le cabinet est identifié par un RPPS-rang à 14 caractères (numéro RPPS du professionnel + rang sur 2 caractères + clé de Luhn);** 8 + N° RPPS du professionnel ou de l’étudiant;    Ex : 810005678901 : identification nationale d’un professionnel ou d’un étudiant identifié par un n° RPPS = 10005678901Le numéro RPPS est un identifiant pérenne, constitué de 11 caractères non significatifs (numéro d’ordre sur 10 caractères + clé de Luhn sur 1 caractère);** 10 + Adresse MSS (adresse MSS d'un professionnel sans identifiant national (assistante sociale, médecin non inscrit, etc.); cet identifiant est utilisé uniquement pour la messagerie sécurisée de santé.Synonyme: PS_IdNat (CI-SIS, appel contextuel pour les applications Web).</t>
+    <t>Identification nationale principale du professionnel initiée pour les besoins du SI-CPS.Cette identification est obtenue par la concaténation du type d'identifiant national de personne (provenant de la nomenclature CodeSystem-TRE-G08-TypeIdentifiantPersonne) et de l'identifiant de la personne physique provenant, selon le type d’identifiant, soit d’un référentiel national, soit d’un référentiel local propre à la structure d’exercice de la personne physique:** 0 + N° ADELI du professionnel    Ex : 0123456789 : identification nationale d’un professionnel identifié par un n° ADELI = 123456789;** 1 + Identifiant cabinet ADELI/identifiant interne du professionnel employé au sein d’un cabinet    Ex : 112345678901/00001 : identification nationale d’un employé dans un cabinet libéral:          - le titulaire du cabinet est un professionnel identifié par un n° ADELI = 123456789          - le cabinet est identifié par un ADELI-rang = 12345678901 (01 = n° de rang du cabinet du même professionnel sur 2 caractères)          - l’identifiant interne de l’employé dans la structure = 00001; ** 3 + N° FINESS/identifiant interne du professionnel employé au sein d’une structure FINESS;** 4 + N° Siren/identifiant interne du professionnel employé au sein d’une structure Siren (NB: pas d'utilisation identifiée de cette construction);** 5 + N° Siret/identifiant interne du professionnel employé au sein d’une structure Siret;** 6 + Identifiant cabinet RPPS/ identifiant interne du professionnel employé au sein d’un cabinet          - le cabinet est identifié par un RPPS-rang à 14 caractères (numéro RPPS du professionnel + rang sur 2 caractères + clé de Luhn);** 8 + N° RPPS du professionnel ou de l’étudiant;    Ex : 810005678901 : identification nationale d’un professionnel ou d’un étudiant identifié par un n° RPPS = 10005678901Le numéro RPPS est un identifiant pérenne, constitué de 11 caractères non significatifs (numéro d’ordre sur 10 caractères + clé de Luhn sur 1 caractère);** 10 + Adresse MSS (adresse MSS d'un professionnel sans identifiant national (assistante sociale, médecin non inscrit, etc.); cet identifiant est utilisé uniquement pour la messagerie sécurisée de santé.Synonyme: PS_IdNat (CI-SIS, appel contextuel pour les applications Web).</t>
   </si>
   <si>
     <t>Professionnel.personne</t>
@@ -286,7 +286,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identité civile du professionnel.</t>
+    <t>Identité civile du professionnel.</t>
   </si>
   <si>
     <t>Professionnel.diplomeObtenu</t>
@@ -296,7 +296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme(s) acquis par le professionnel.</t>
+    <t>Diplôme(s) acquis par le professionnel.</t>
   </si>
   <si>
     <t>Professionnel.adresseCorrespondance</t>
@@ -306,7 +306,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) de correspondance permettant de contacter les professionnels:** lorsque les structures ne sont pas identifiées : cas des remplaçants ou des professionnels venant de s’inscrire mais non encore installés;** hors de leurs lieux d’exercice, s’ils le souhaitent.Remarque système RPPS : La première occurrence correspond aux coordonnées de correspondance du RPPS.</t>
+    <t>Adresse(s) de correspondance permettant de contacter les professionnels:** lorsque les structures ne sont pas identifiées : cas des remplaçants ou des professionnels venant de s’inscrire mais non encore installés;** hors de leurs lieux d’exercice, s’ils le souhaitent.Remarque système RPPS : La première occurrence correspond aux coordonnées de correspondance du RPPS.</t>
   </si>
   <si>
     <t>Professionnel.telecommunication</t>
@@ -316,7 +316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) de télécommunication du professionnel (numéro de téléphone, adresse email, URL, etc.).</t>
+    <t>Adresse(s) de télécommunication du professionnel (numéro de téléphone, adresse email, URL, etc.).</t>
   </si>
   <si>
     <t>Professionnel.boiteLettresMSS</t>
@@ -326,7 +326,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel.</t>
+    <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel.</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G08-TypeIdentifiantPersonne?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne?vs</t>
   </si>
   <si>
     <t>Professionnel.idNatPS</t>
@@ -663,7 +663,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.52734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="86.91796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS ou ADELI), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS ou ADELI), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
   </si>
   <si>
     <t>Base</t>
@@ -560,39 +560,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -600,26 +602,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -677,112 +679,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -794,95 +796,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -894,23 +896,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -924,65 +926,65 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -994,23 +996,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>81</v>
@@ -1024,26 +1026,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>83</v>
@@ -1053,34 +1055,34 @@
         <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1092,23 +1094,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>78</v>
@@ -1122,65 +1124,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1192,23 +1194,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>88</v>
@@ -1222,65 +1224,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1292,23 +1294,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>91</v>
@@ -1322,65 +1324,65 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1392,23 +1394,23 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>94</v>
@@ -1422,65 +1424,65 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1492,23 +1494,23 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>97</v>
@@ -1522,65 +1524,65 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1592,23 +1594,23 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>100</v>
@@ -1622,65 +1624,65 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Professionnel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Professionnel</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Professionnel</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
     <t>Professionnel.personne</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/PersonnePhysique
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePhysique
 </t>
   </si>
   <si>
@@ -292,7 +292,7 @@
     <t>Professionnel.diplomeObtenu</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome
 </t>
   </si>
   <si>
@@ -302,7 +302,7 @@
     <t>Professionnel.adresseCorrespondance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Adresse
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
     <t>Professionnel.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Telecommunication
 </t>
   </si>
   <si>
@@ -322,7 +322,7 @@
     <t>Professionnel.boiteLettresMSS</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/BoiteLettreMSS
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/BoiteLettreMSS
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
